--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>651944.7178236622</v>
+        <v>649423.2963744729</v>
       </c>
     </row>
     <row r="7">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>311.6318786415753</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>118.0579154674841</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>7.085048196138644</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.7887753295814</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>108.4721783769036</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>135.7197483422041</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>233.3934276525048</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>23.72972425580046</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>215.8805807907278</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>41.53554168227079</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>275.0428790940291</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>35.97899192967662</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>26.6692588683104</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754676</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>319.4395745411754</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>111.3598553131475</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.60617040425681</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1582,13 +1582,13 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892407</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.1376433238295</v>
       </c>
       <c r="W16" t="n">
-        <v>272.3630868537624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,13 +1847,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.07916359105462</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>137.3021949834108</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833703</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238293</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D25" t="n">
-        <v>38.61213096655027</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892423</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699831</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>132.6315337216719</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2843,7 +2843,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699831</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.405450327287</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>146.5235739004529</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>26.13627195705896</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>34.45703212904731</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.82863813027318</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188789</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>212.8988206105705</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>144.9604756260741</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1081.071510755571</v>
+        <v>897.7254217792906</v>
       </c>
       <c r="C2" t="n">
-        <v>1081.071510755571</v>
+        <v>528.762904838879</v>
       </c>
       <c r="D2" t="n">
-        <v>1081.071510755571</v>
+        <v>170.4972062321285</v>
       </c>
       <c r="E2" t="n">
-        <v>766.2918353600403</v>
+        <v>170.4972062321285</v>
       </c>
       <c r="F2" t="n">
-        <v>355.3059305704328</v>
+        <v>170.4972062321285</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,46 +4334,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W2" t="n">
-        <v>2231.276441056584</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X2" t="n">
-        <v>1857.810682795504</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="Y2" t="n">
-        <v>1467.671350819693</v>
+        <v>1284.325261843412</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694941</v>
+        <v>932.4978103101002</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1295.759829269321</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425659</v>
+        <v>1683.044957866266</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2015.115393042428</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2262.298126874725</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.3498906720603</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="C4" t="n">
-        <v>369.3498906720603</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671838</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W4" t="n">
-        <v>580.2476435302233</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="X4" t="n">
-        <v>369.3498906720603</v>
+        <v>342.4631083446101</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.3498906720603</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1367.208738248818</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C5" t="n">
-        <v>1367.208738248818</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D5" t="n">
-        <v>1230.118083357703</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583054</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.80857831294</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.80857831294</v>
+        <v>1720.238675371489</v>
       </c>
       <c r="Y5" t="n">
-        <v>1753.80857831294</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429755</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744472</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>367.0729169938204</v>
+        <v>223.9551031446994</v>
       </c>
       <c r="C7" t="n">
-        <v>198.1367340659135</v>
+        <v>223.9551031446994</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>223.9551031446994</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>223.9551031446994</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>223.9551031446994</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>223.9551031446994</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>75.21620500820561</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1056.199744578928</v>
+        <v>962.1544032232074</v>
       </c>
       <c r="W7" t="n">
-        <v>766.7825745419671</v>
+        <v>672.7372331862468</v>
       </c>
       <c r="X7" t="n">
-        <v>766.7825745419671</v>
+        <v>444.7476822882295</v>
       </c>
       <c r="Y7" t="n">
-        <v>548.7213818240601</v>
+        <v>223.9551031446994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.539111149739</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1063.934757721592</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213861</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4902,31 +4902,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.7237329438971</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1890.95213199791</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1601.849265123554</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1347.164776917667</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.164776917667</v>
+        <v>943.1160480830762</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.164776917667</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="Y10" t="n">
-        <v>1126.372197774137</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F11" t="n">
-        <v>793.22209597083</v>
+        <v>742.422574620032</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018649</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957686</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874792</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021278</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.39853312617</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856056</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="12">
@@ -5106,31 +5106,31 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779263</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K12" t="n">
-        <v>240.4596049779263</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L12" t="n">
-        <v>728.4098038726853</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M12" t="n">
-        <v>1320.428158124813</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N12" t="n">
-        <v>1320.428158124813</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O12" t="n">
         <v>1867.304633125007</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.385284034031</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>929.4491011061236</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>779.3324616937879</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="E13" t="n">
-        <v>631.4193681113948</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F13" t="n">
-        <v>484.5294206134844</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3152257880633</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2386.349339658392</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2203.179149397322</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>1983.500367111704</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1983.500367111704</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1728.815878905817</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1728.815878905817</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1500.8263280078</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.03374886427</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.230692780394</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.230692780394</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961529</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998423</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998423</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854711</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854711</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.271624709496</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.4894946679489</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,7 +5516,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2517.442480416598</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797191</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516144</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="23">
@@ -5981,55 +5981,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>671.2000270096656</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327672</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048604</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
         <v>407.9027098310023</v>
@@ -6136,61 +6136,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947402</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741515</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704554</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806537</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663007</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6221,19 +6221,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6251,13 +6251,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>867.8220324314346</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1465.200520057987</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612593</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098269</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C28" t="n">
-        <v>814.41942088192</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695843</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3896878871911</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892808</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580264</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580264</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580264</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924462</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718575</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681614</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783597</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640067</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6458,19 +6458,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6491,10 +6491,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6543,25 +6543,25 @@
         <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239597</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L30" t="n">
-        <v>710.248605371872</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797189</v>
@@ -6622,49 +6622,49 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038385</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797788</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487572</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831769</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625883</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6713,13 +6713,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.07903472198</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>2253.988764961267</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,7 +6935,7 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075794</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397185</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397185</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.432392194325</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2104.342122433613</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2527.965271928681</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7254,19 +7254,19 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
         <v>407.9027098310023</v>
@@ -7357,25 +7357,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630049</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7406,16 +7406,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075794</v>
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>214.9229991561132</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>214.9229991561132</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
         <v>710.248605371872</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>186.5911984019044</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282429</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>-4.500905918474234e-14</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>70.29849143068651</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>93.90452150794509</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>379.1528904599149</v>
       </c>
     </row>
     <row r="3">
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>16.92088005945578</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>110.1124749751912</v>
       </c>
     </row>
     <row r="5">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>50.29152613729002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>50.2915261372936</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>37.25561770506482</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.57458118682678</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>14.15991148282865</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671011808</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>29.94462611521706</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459422</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0033420516621</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>32.89260457059694</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>139.9994244361381</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>191.2691783702293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>114.158440889165</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>144.59566540674</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>73.62417772602055</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>73.62417772602069</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>954342.830422363</v>
+        <v>954342.8304223631</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503242</v>
+        <v>375475.6212503244</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321418</v>
+        <v>410520.8849321419</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321415</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190153</v>
+        <v>401339.8858190154</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="G2" t="n">
         <v>403573.2998450032</v>
       </c>
       <c r="H2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="I2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="J2" t="n">
-        <v>403573.2998450033</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="K2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="L2" t="n">
-        <v>403573.2998450033</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="M2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="O2" t="n">
+        <v>403573.2998450032</v>
+      </c>
+      <c r="P2" t="n">
         <v>403573.2998450031</v>
-      </c>
-      <c r="P2" t="n">
-        <v>403573.299845003</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403376</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189851</v>
+        <v>313680.0588189856</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504238</v>
+        <v>11452.26311504109</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099829</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>48293.97000819063</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832911</v>
+        <v>81924.2786383293</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355705008</v>
+        <v>3077.017355704674</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95516.77164860955</v>
+        <v>95516.77164860953</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
-        <v>8720.723770518929</v>
+        <v>8720.723770518933</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744308</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744284</v>
@@ -26442,16 +26442,16 @@
         <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
+        <v>8727.256391744277</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="M4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="L4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744282</v>
-      </c>
       <c r="N4" t="n">
-        <v>8727.256391744251</v>
+        <v>8727.256391744269</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26479,7 +26479,7 @@
         <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-927730.7064140497</v>
+        <v>-927905.9327324588</v>
       </c>
       <c r="C6" t="n">
         <v>182060.9755153141</v>
       </c>
       <c r="D6" t="n">
-        <v>22045.51276731471</v>
+        <v>22045.51276731506</v>
       </c>
       <c r="E6" t="n">
-        <v>-21203.02528432704</v>
+        <v>-21248.93027989325</v>
       </c>
       <c r="F6" t="n">
-        <v>282271.2505143093</v>
+        <v>282236.5125888747</v>
       </c>
       <c r="G6" t="n">
-        <v>293723.5136293521</v>
+        <v>293688.775703916</v>
       </c>
       <c r="H6" t="n">
-        <v>293723.5136293519</v>
+        <v>293688.7757039157</v>
       </c>
       <c r="I6" t="n">
-        <v>293723.5136293517</v>
+        <v>293688.7757039159</v>
       </c>
       <c r="J6" t="n">
-        <v>126118.3358193694</v>
+        <v>126083.597893933</v>
       </c>
       <c r="K6" t="n">
-        <v>293723.5136293517</v>
+        <v>293688.7757039159</v>
       </c>
       <c r="L6" t="n">
-        <v>245429.5436211612</v>
+        <v>245394.8056957252</v>
       </c>
       <c r="M6" t="n">
-        <v>211799.2349910227</v>
+        <v>211764.4970655866</v>
       </c>
       <c r="N6" t="n">
-        <v>290646.4962736467</v>
+        <v>290611.7583482114</v>
       </c>
       <c r="O6" t="n">
-        <v>293723.5136293517</v>
+        <v>293688.775703916</v>
       </c>
       <c r="P6" t="n">
-        <v>293723.5136293517</v>
+        <v>293688.775703916</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
-        <v>268.2643481230871</v>
+        <v>268.2643481230875</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625289057</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237135</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364279</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237135</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364279</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237135</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364279</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>317.6431812650089</v>
+        <v>293.4897873054699</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>218.9632932784789</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>136.3376730259642</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>81.06687094810009</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.704072561366957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>323.7373500887368</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>106.8874909782327</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>183.5699573464926</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>259.8537394682806</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-4.429129912103985e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28539,10 +28539,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>3.393552105990239e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28567,13 +28567,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.916515846374476e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29250,7 +29250,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29469,13 +29469,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29694,7 +29694,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29721,7 +29721,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735817</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>631.433368562459</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426203</v>
+        <v>507.4786487269579</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982452</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>181.3625385436713</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
         <v>205.0641983561742</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>714.9328157424936</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485292</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>169.9530009943068</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>691.6611968462889</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>568.8264345569164</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,25 +33020,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>430.136771173632</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
@@ -33047,7 +33047,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33263,28 +33263,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>422.1299181110988</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,16 +33497,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
@@ -33515,10 +33515,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>399.0581126127089</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33655,10 +33655,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
         <v>867.8464071162563</v>
@@ -33731,7 +33731,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,10 +33740,10 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>165.3312853305614</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33974,22 +33974,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>577.7447198439381</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>729.0844763571693</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34138,7 +34138,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>208.6096528357816</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
         <v>867.8464071162563</v>
@@ -34442,16 +34442,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>247.3820194983578</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>272.756932936465</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34796,7 +34796,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>303.0719207327591</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>617.0987427660932</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.139375506915</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>492.8789887825848</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981759</v>
+        <v>364.8824042825134</v>
       </c>
       <c r="P12" t="n">
-        <v>423.821735783915</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426736</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>35.68303457970737</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>572.7987818204753</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789219</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>35.9785935799765</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>560.3194847629557</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>430.2720547770423</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>291.5823913937579</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36765,13 +36765,13 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060485</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998997</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>283.5755383312246</v>
+        <v>451.8478747603109</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096391</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
         <v>394.3420143191315</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,16 +37145,16 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
@@ -37163,10 +37163,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>265.0837051983787</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789214</v>
@@ -37303,10 +37303,10 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
         <v>632.079992146269</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>25.34951124453992</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>439.190340064064</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>586.9504424351509</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37786,7 +37786,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193518</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>66.47561891376326</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
         <v>632.079992146269</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>120.5443928316911</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>134.2025531565909</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
